--- a/biology/Zoologie/Dytiscus_latissimus/Dytiscus_latissimus.xlsx
+++ b/biology/Zoologie/Dytiscus_latissimus/Dytiscus_latissimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dytiscus latissimus, le Grand dytique, est une espèce d'insectes coléoptères de la famille des Dytiscidae d'Europe centrale (très rare en France où il est menacé ou serait même éteint comme au Benelux et en Allemagne). Le Grand dytique ainsi que ses habitats sont protégés en France et en Europe.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus grand que le dytique bordé (Dytiscus marginalis), il présente des élytres plus noirs et munis d'une excroissance latérale.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente préférentiellement de grands lacs.
 Sur les autres projets Wikimedia :
